--- a/data/save_data/2023/mejía_j. c..xlsx
+++ b/data/save_data/2023/mejía_j. c..xlsx
@@ -502,7 +502,7 @@
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>-4</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -570,7 +570,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -604,7 +604,7 @@
         <v>-3</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -638,7 +638,7 @@
         <v>-2</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>-2</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>-1</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>-5</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -944,7 +944,7 @@
         <v>-4</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>

--- a/data/save_data/2023/mejía_j. c..xlsx
+++ b/data/save_data/2023/mejía_j. c..xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -496,10 +496,10 @@
         <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>40</v>
       </c>
       <c r="E3" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F3" t="n">
         <v>-2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-4</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
@@ -564,10 +564,10 @@
         <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -598,10 +598,10 @@
         <v>43</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -635,7 +635,7 @@
         <v>-2</v>
       </c>
       <c r="F6" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>-2</v>
       </c>
       <c r="F7" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>-1</v>
       </c>
       <c r="F8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -734,10 +734,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>-5</v>
       </c>
       <c r="F11" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -836,10 +836,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F12" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -873,7 +873,7 @@
         <v>-1</v>
       </c>
       <c r="F13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>-1</v>
       </c>
       <c r="F14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>-4</v>
       </c>
       <c r="F15" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
